--- a/risultato/FASCIA A - GIALLOARANCIO-ARANCIO.xlsx
+++ b/risultato/FASCIA A - GIALLOARANCIO-ARANCIO.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASALI </t>
+          <t>PASQUALETTO</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>DANIEL</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>SARTOR</t>
+          <t xml:space="preserve">BALDASSA </t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>GIOVANNI</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALDASSA </t>
+          <t>CUSINATO</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>NICOLÒ</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>CUSINATO</t>
+          <t>FABRIS</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>NICOLÒ</t>
+          <t>MATTIA</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>PASQUALETTO</t>
+          <t>STEINER</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>FEDERICO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>FABRIS</t>
+          <t>BASEGGIO</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>MATTIA</t>
+          <t>GIACOMO</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>STEINER</t>
+          <t>SARTOR</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>FEDERICO</t>
+          <t>GIOVANNI</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,21 +763,21 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>BASEGGIO</t>
+          <t>TANASE</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>GIACOMO</t>
+          <t>VLAD</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr"/>
@@ -790,21 +790,21 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="6" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>TANASE</t>
+          <t xml:space="preserve">CASALI </t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>VLAD</t>
+          <t>DANIEL</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>

--- a/risultato/FASCIA A - GIALLOARANCIO-ARANCIO.xlsx
+++ b/risultato/FASCIA A - GIALLOARANCIO-ARANCIO.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>PASQUALETTO</t>
+          <t xml:space="preserve">CASALI </t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>DANIEL</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALDASSA </t>
+          <t>STEINER</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>FEDERICO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>CUSINATO</t>
+          <t>PASQUALETTO</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>NICOLÒ</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
@@ -664,12 +664,12 @@
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>FABRIS</t>
+          <t xml:space="preserve">BALDASSA </t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>MATTIA</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>STEINER</t>
+          <t>BASEGGIO</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>FEDERICO</t>
+          <t>GIACOMO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>BASEGGIO</t>
+          <t>TANASE</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>GIACOMO</t>
+          <t>VLAD</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>SARTOR</t>
+          <t>FABRIS</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>GIOVANNI</t>
+          <t>MATTIA</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,21 +763,21 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>TANASE</t>
+          <t>CUSINATO</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>VLAD</t>
+          <t>NICOLÒ</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr"/>
@@ -790,21 +790,21 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="6" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASALI </t>
+          <t>SARTOR</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>DANIEL</t>
+          <t>GIOVANNI</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>

--- a/risultato/FASCIA A - GIALLOARANCIO-ARANCIO.xlsx
+++ b/risultato/FASCIA A - GIALLOARANCIO-ARANCIO.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CASALI </t>
+          <t>TANASE</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>DANIEL</t>
+          <t>VLAD</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>STEINER</t>
+          <t>BASEGGIO</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>FEDERICO</t>
+          <t>GIACOMO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,7 +628,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALDASSA </t>
+          <t xml:space="preserve">CASALI </t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>DANIEL</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>BASEGGIO</t>
+          <t xml:space="preserve">BALDASSA </t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>GIACOMO</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>TANASE</t>
+          <t>SARTOR</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>VLAD</t>
+          <t>GIOVANNI</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>FABRIS</t>
+          <t>STEINER</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>MATTIA</t>
+          <t>FEDERICO</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
@@ -790,21 +790,21 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="6" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>SARTOR</t>
+          <t>FABRIS</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>GIOVANNI</t>
+          <t>MATTIA</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
